--- a/Excel Files/COMP_STATEMENT_RM.xlsx
+++ b/Excel Files/COMP_STATEMENT_RM.xlsx
@@ -1766,7 +1766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>kryan@cvrx.com</t>
+          <t>jgarner@cvrx.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>106813</v>
+        <v>39821.4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>kryan@cvrx.com</t>
+          <t>jgarner@cvrx.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>kryan@cvrx.com</t>
+          <t>jgarner@cvrx.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>917500</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>kryan@cvrx.com</t>
+          <t>jgarner@cvrx.com</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>kryan@cvrx.com</t>
+          <t>jgarner@cvrx.com</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>16239.8</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>kryan@cvrx.com</t>
+          <t>jgarner@cvrx.com</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>kryan@cvrx.com</t>
+          <t>jgarner@cvrx.com</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>kryan@cvrx.com</t>
+          <t>jgarner@cvrx.com</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>AD_PO</t>
+          <t>RM_L1_REV</t>
         </is>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>kryan@cvrx.com</t>
+          <t>jgarner@cvrx.com</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2123,11 +2123,11 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>917500</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>RM_L1_REV</t>
+          <t>RM_L2_REV</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>kryan@cvrx.com</t>
+          <t>jgarner@cvrx.com</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>RM_L2_REV</t>
+          <t>RM_L3_REV</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>kryan@cvrx.com</t>
+          <t>jgarner@cvrx.com</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>RM_L3_REV</t>
+          <t>EARNED_MNTH_PO</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>kryan@cvrx.com</t>
+          <t>jgarner@cvrx.com</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2228,11 +2228,11 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>16239.8</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>EARNED_MNTH_PO</t>
+          <t>EARNED_QTD_PO</t>
         </is>
       </c>
     </row>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>kryan@cvrx.com</t>
+          <t>jgarner@cvrx.com</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2263,44 +2263,9 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>16239.8</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
-        <is>
-          <t>EARNED_QTD_PO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2024_05</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2024_Q2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>16239.8</v>
-      </c>
-      <c r="G15" t="inlineStr">
         <is>
           <t>PO_AMT</t>
         </is>
@@ -2336,7 +2301,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Kevin Ryan</t>
+          <t>Jordan Garner</t>
         </is>
       </c>
     </row>
@@ -2348,7 +2313,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>kryan@cvrx.com</t>
+          <t>jgarner@cvrx.com</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2332,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FLORIDA</t>
+          <t>HEARTLAND</t>
         </is>
       </c>
     </row>
@@ -2379,7 +2344,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Area Director</t>
+          <t>Region Manager</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2538,12 +2503,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>kryan@cvrx.com</t>
+          <t>jheimsoth@cvrx.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>kryan@cvrx.com</t>
+          <t>jgarner@cvrx.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2553,17 +2518,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-05-01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Tallahassee Memorial Healthcare</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CRX654 018742</t>
+          <t>May  1 2024 12:00AM</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -2577,22 +2532,13 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>99000</v>
-      </c>
-      <c r="K2" t="n">
-        <v>33000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>19</v>
-      </c>
-      <c r="M2" t="n">
-        <v>558000</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>99000</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -2601,1677 +2547,24 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0177</v>
+        <v>0.0463</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0405</v>
+        <v>0.0838</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0477</v>
+        <v>0.0838</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1752.3</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2024-05-03</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Physicians Regional Mc-Pr</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CVR409 018463</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2024_05</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2024_Q2</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>35000</v>
-      </c>
-      <c r="K3" t="n">
-        <v>35000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>20</v>
-      </c>
-      <c r="M3" t="n">
-        <v>593000</v>
-      </c>
-      <c r="N3" t="n">
-        <v>35000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.0177</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.0405</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.0477</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>619.5</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2024-05-08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Adventhealth Zephyrhills</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>CRX832 018812</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2024_05</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2024_Q2</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>28000</v>
-      </c>
-      <c r="K4" t="n">
-        <v>28000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21</v>
-      </c>
-      <c r="M4" t="n">
-        <v>621000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>28000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.0177</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.0405</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.0477</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>495.6</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2024-05-09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Adventhealth Orlando</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>AHOrl 015007</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2024_05</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2024_Q2</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>28000</v>
-      </c>
-      <c r="K5" t="n">
-        <v>28000</v>
-      </c>
-      <c r="L5" t="n">
-        <v>22</v>
-      </c>
-      <c r="M5" t="n">
-        <v>649000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>28000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.0177</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.0405</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.0477</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>495.6</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2024-05-10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Adventhealth Orlando</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>AHOrl 016897</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2024_05</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2024_Q2</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>28000</v>
-      </c>
-      <c r="K6" t="n">
-        <v>28000</v>
-      </c>
-      <c r="L6" t="n">
-        <v>23</v>
-      </c>
-      <c r="M6" t="n">
-        <v>677000</v>
-      </c>
-      <c r="N6" t="n">
-        <v>28000</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.0177</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.0405</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.0477</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>495.6</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2024-05-14</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Adventhealth Orlando</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>AHOrl 018803</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2024_05</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2024_Q2</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>28000</v>
-      </c>
-      <c r="K7" t="n">
-        <v>28000</v>
-      </c>
-      <c r="L7" t="n">
-        <v>24</v>
-      </c>
-      <c r="M7" t="n">
-        <v>705000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>28000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.0177</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.0405</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.0477</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>495.6</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2024-05-17</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Adventhealth Orlando</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>AHOrl 017791</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2024_05</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2024_Q2</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>28000</v>
-      </c>
-      <c r="K8" t="n">
-        <v>28000</v>
-      </c>
-      <c r="L8" t="n">
-        <v>25</v>
-      </c>
-      <c r="M8" t="n">
-        <v>733000</v>
-      </c>
-      <c r="N8" t="n">
-        <v>28000</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.0177</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.0405</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.0477</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>495.6</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2024-05-20</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Adventhealth Zephyrhills</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>CRX832 019205</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2024_05</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2024_Q2</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>28000</v>
-      </c>
-      <c r="K9" t="n">
-        <v>28000</v>
-      </c>
-      <c r="L9" t="n">
-        <v>26</v>
-      </c>
-      <c r="M9" t="n">
-        <v>761000</v>
-      </c>
-      <c r="N9" t="n">
-        <v>28000</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.0177</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.0405</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.0477</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>495.6</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2024-05-22</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Adventhealth Orlando</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>AHOrl 012125</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2024_05</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2024_Q2</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>28000</v>
-      </c>
-      <c r="K10" t="n">
-        <v>28000</v>
-      </c>
-      <c r="L10" t="n">
-        <v>27</v>
-      </c>
-      <c r="M10" t="n">
-        <v>789000</v>
-      </c>
-      <c r="N10" t="n">
-        <v>28000</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.0177</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.0405</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.0477</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>495.6</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2024-05-22</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Adventhealth Orlando</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>AHOrl 013658</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2024_05</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2024_Q2</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>28000</v>
-      </c>
-      <c r="K11" t="n">
-        <v>28000</v>
-      </c>
-      <c r="L11" t="n">
-        <v>28</v>
-      </c>
-      <c r="M11" t="n">
-        <v>817000</v>
-      </c>
-      <c r="N11" t="n">
-        <v>28000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.0177</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.0405</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.0477</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>495.6</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2024-05-23</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Willis Knighton Medical Center, Inc</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>CRX953 019313</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2024_05</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2024_Q2</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>99000</v>
-      </c>
-      <c r="K12" t="n">
-        <v>33000</v>
-      </c>
-      <c r="L12" t="n">
-        <v>31</v>
-      </c>
-      <c r="M12" t="n">
-        <v>916000</v>
-      </c>
-      <c r="N12" t="n">
-        <v>99000</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.0177</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.0405</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.0477</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1752.3</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2024-05-27</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Lee Memorial Hs- Cape Coral Hosp</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>CCH 017709</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2024_05</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2024_Q2</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>30000</v>
-      </c>
-      <c r="K13" t="n">
-        <v>30000</v>
-      </c>
-      <c r="L13" t="n">
-        <v>32</v>
-      </c>
-      <c r="M13" t="n">
-        <v>946000</v>
-      </c>
-      <c r="N13" t="n">
-        <v>30000</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.0177</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.0405</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.0477</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>531</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2024-05-28</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Adventhealth Orlando</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>AHOrl 014208</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2024_05</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2024_Q2</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>28000</v>
-      </c>
-      <c r="K14" t="n">
-        <v>28000</v>
-      </c>
-      <c r="L14" t="n">
-        <v>33</v>
-      </c>
-      <c r="M14" t="n">
-        <v>974000</v>
-      </c>
-      <c r="N14" t="n">
-        <v>28000</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.0177</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.0405</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.0477</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>495.6</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2024-05-29</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Lee Memorial Hs- Cape Coral Hosp</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>CCH 017851</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2024_05</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2024_Q2</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>31500</v>
-      </c>
-      <c r="K15" t="n">
-        <v>31500</v>
-      </c>
-      <c r="L15" t="n">
-        <v>34</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1005500</v>
-      </c>
-      <c r="N15" t="n">
-        <v>31500</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.0177</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.0405</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.0477</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>557.5500000000001</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2024-05-29</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Holy Cross Health</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>FLL01 017705</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2024_05</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2024_Q2</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>31500</v>
-      </c>
-      <c r="K16" t="n">
-        <v>31500</v>
-      </c>
-      <c r="L16" t="n">
-        <v>35</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1037000</v>
-      </c>
-      <c r="N16" t="n">
-        <v>31500</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.0177</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.0405</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.0477</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>557.5500000000001</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2024-05-30</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Adventhealth Orlando</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>AHOrl 016701</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2024_05</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2024_Q2</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>28000</v>
-      </c>
-      <c r="K17" t="n">
-        <v>28000</v>
-      </c>
-      <c r="L17" t="n">
-        <v>36</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1065000</v>
-      </c>
-      <c r="N17" t="n">
-        <v>28000</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.0177</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.0405</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.0477</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>495.6</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2024-05-30</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Adventhealth Orlando</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>AHOrl 017373</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2024_05</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2024_Q2</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>28000</v>
-      </c>
-      <c r="K18" t="n">
-        <v>28000</v>
-      </c>
-      <c r="L18" t="n">
-        <v>37</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1093000</v>
-      </c>
-      <c r="N18" t="n">
-        <v>28000</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.0177</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.0405</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.0477</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>495.6</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2024-05-31</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Bethesda Hospital East</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>BHE01 019339</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2024_05</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2024_Q2</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>31500</v>
-      </c>
-      <c r="K19" t="n">
-        <v>31500</v>
-      </c>
-      <c r="L19" t="n">
-        <v>38</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1124500</v>
-      </c>
-      <c r="N19" t="n">
-        <v>31500</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.0177</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.0405</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.0477</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>557.5500000000001</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2024-05-31</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Manatee Memorial Hospital Lp</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>ManMemMC 019299</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2024_05</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2024_Q2</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>168000</v>
-      </c>
-      <c r="K20" t="n">
-        <v>28000</v>
-      </c>
-      <c r="L20" t="n">
-        <v>44</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1292500</v>
-      </c>
-      <c r="N20" t="n">
-        <v>168000</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.0177</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.0405</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.0477</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2973.6</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>kryan@cvrx.com</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2024-05-31</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Memorial Hosp Jacksonville  Inc</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>MemJax 019335</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2024_05</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2024_Q2</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>84000</v>
-      </c>
-      <c r="K21" t="n">
-        <v>28000</v>
-      </c>
-      <c r="L21" t="n">
-        <v>47</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1376500</v>
-      </c>
-      <c r="N21" t="n">
-        <v>84000</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.0177</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.0405</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.0477</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1486.8</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
         <v>0</v>
       </c>
     </row>
